--- a/biology/Histoire de la zoologie et de la botanique/Eugène_Séguy/Eugène_Séguy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène_Séguy/Eugène_Séguy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_S%C3%A9guy</t>
+          <t>Eugène_Séguy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Séguy est un entomologiste français, spécialiste des diptères, né le 21 avril 1890[1] à Paris et mort le 1er juin 1985 à Villejuif.
-Il a travaillé presque 50 ans au Muséum national d'histoire naturelle dont il a été directeur du laboratoire d'entomologie de 1955 à 1960[2]
-Il a écrit plus de 20 ouvrages consacrés aux diptères, tant spécialisés que de vulgarisation et plusieurs centaines d'articles scientifiques. Il est aussi connu des micrographes par des manuels de microscopie qui, bien qu'anciens, restent utiles aux amateurs[2].
-Ses planches d'entomologie ont été rééditées, accompagnées d'une biographie par Jean Paul Haenni, à l'occasion d'une exposition intitulée « Mouches » au muséum de Neuchâtel en 2004-2005[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Séguy est un entomologiste français, spécialiste des diptères, né le 21 avril 1890 à Paris et mort le 1er juin 1985 à Villejuif.
+Il a travaillé presque 50 ans au Muséum national d'histoire naturelle dont il a été directeur du laboratoire d'entomologie de 1955 à 1960
+Il a écrit plus de 20 ouvrages consacrés aux diptères, tant spécialisés que de vulgarisation et plusieurs centaines d'articles scientifiques. Il est aussi connu des micrographes par des manuels de microscopie qui, bien qu'anciens, restent utiles aux amateurs.
+Ses planches d'entomologie ont été rééditées, accompagnées d'une biographie par Jean Paul Haenni, à l'occasion d'une exposition intitulée « Mouches » au muséum de Neuchâtel en 2004-2005,.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_S%C3%A9guy</t>
+          <t>Eugène_Séguy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1925 : Faune de France. Diptères Nématocères: Ptychopteridae à Phlebotominae, 109 p., 179 fig.
 1926 : Faune de France. Diptères Brachycères.Stratiomyidae à Omphralidae, 308 p., 685 fig.
